--- a/src/test/java/seatech/uiTest/ibv/testcase/hubspot_scenarios.xlsx
+++ b/src/test/java/seatech/uiTest/ibv/testcase/hubspot_scenarios.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\automation-test-master\src\test\java\seatech\uiTest\ibv\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914C266-697B-420A-A678-713BE80EBDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7082288-28A0-41AB-8329-573B6B362D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="login" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="signup" sheetId="1" r:id="rId3"/>
+    <sheet name="ck trong" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="signup" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="76">
   <si>
     <t>action</t>
   </si>
@@ -201,13 +202,67 @@
   </si>
   <si>
     <t>5013001_maker1</t>
+  </si>
+  <si>
+    <t>//span[contains(.,'Chuyển Khoản Trong Hệ Thống')]</t>
+  </si>
+  <si>
+    <t>click to InternamTrans</t>
+  </si>
+  <si>
+    <t>//label[contains(.,'Cùng chủ tài khoản')]</t>
+  </si>
+  <si>
+    <t>click to Tab SameAccount</t>
+  </si>
+  <si>
+    <t>selectAccountNo</t>
+  </si>
+  <si>
+    <t>click to selectbox account no</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>//button[contains(.,'Đăng nhập')]</t>
+  </si>
+  <si>
+    <t>//option[contains(@value, '5013001-002')]</t>
+  </si>
+  <si>
+    <t>5013001-002</t>
+  </si>
+  <si>
+    <t>infoFrame</t>
+  </si>
+  <si>
+    <t>switchTo</t>
+  </si>
+  <si>
+    <t>tranFrame</t>
+  </si>
+  <si>
+    <t>click to iframe</t>
+  </si>
+  <si>
+    <t>exit frame</t>
+  </si>
+  <si>
+    <t>switchToDefault</t>
+  </si>
+  <si>
+    <t>click to mainframe</t>
+  </si>
+  <si>
+    <t>click tab SameAccount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -257,6 +312,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -346,14 +407,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -638,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:G11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -649,8 +708,8 @@
     <col min="1" max="1" width="11" style="5"/>
     <col min="2" max="2" width="23.125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.25" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="6" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="15.625" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="5"/>
@@ -737,9 +796,7 @@
       <c r="F4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
@@ -757,9 +814,7 @@
       <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
@@ -777,9 +832,7 @@
       <c r="F6" s="12">
         <v>12345</v>
       </c>
-      <c r="G6" s="13">
-        <v>12345</v>
-      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
@@ -789,7 +842,7 @@
         <v>17</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>3</v>
@@ -834,16 +887,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>4</v>
@@ -851,23 +904,88 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="15"/>
+      <c r="F15" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -877,6 +995,72 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C451DED-FC5C-4A2C-9BA0-0A29C6C624A3}">
+  <dimension ref="F1:J22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20:J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
+      <c r="F21" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="F22" s="5"/>
+      <c r="G22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE49FA27-A586-4FC2-82E8-6C5B18182A0B}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -921,19 +1105,19 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F4" s="16"/>
+      <c r="F4" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:XFD36"/>
+      <selection activeCell="A47" sqref="A47:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -945,147 +1129,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18" t="s">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18" t="s">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18" t="s">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18" t="s">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="17" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18" t="s">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18" t="s">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="18"/>
+      <c r="E11" s="17"/>
     </row>
     <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -1321,6 +1505,40 @@
         <v>4</v>
       </c>
       <c r="G43" s="5"/>
+    </row>
+    <row r="46" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/test/java/seatech/uiTest/ibv/testcase/hubspot_scenarios.xlsx
+++ b/src/test/java/seatech/uiTest/ibv/testcase/hubspot_scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\automation-test-master\src\test\java\seatech\uiTest\ibv\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F33775-6F06-4302-A532-B44BECBB0DC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07112B-BE34-4787-B985-9C50F6162EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -941,8 +941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1444,7 @@
         <v>4</v>
       </c>
       <c r="G24" s="33">
-        <v>123654</v>
+        <v>123456</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">

--- a/src/test/java/seatech/uiTest/ibv/testcase/hubspot_scenarios.xlsx
+++ b/src/test/java/seatech/uiTest/ibv/testcase/hubspot_scenarios.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\automation-test-master\src\test\java\seatech\uiTest\ibv\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB07112B-BE34-4787-B985-9C50F6162EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D01CAD8-FAD1-471D-B4AB-461995060FBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ck trong" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
-    <sheet name="signup" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="signup" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="97">
   <si>
     <t>action</t>
   </si>
@@ -941,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1443,8 +1444,8 @@
       <c r="F24" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="33">
-        <v>123456</v>
+      <c r="G24" s="33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="34" customFormat="1" x14ac:dyDescent="0.25">
@@ -2101,6 +2102,971 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DEF451-0653-409A-80AA-B1EEE4FA6368}">
+  <dimension ref="A1:G48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B6" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B8" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B15" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B16" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G19" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B24" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B25" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F25" s="20">
+        <v>12345</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B28" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G28" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B29" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B30" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="34" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B31" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="A32" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" s="14" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G36" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B37" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B39" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B40" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="20">
+        <v>20121</v>
+      </c>
+      <c r="G40" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B41" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="G41" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B42" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="14" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B45" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" s="14" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B46" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="D48" s="22"/>
+      <c r="F48" s="22"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC761A6E-E9FF-4ACE-8C2E-C1DB4EA8844F}">
   <dimension ref="A1:A17"/>
   <sheetViews>
@@ -2132,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>

--- a/src/test/java/seatech/uiTest/ibv/testcase/hubspot_scenarios.xlsx
+++ b/src/test/java/seatech/uiTest/ibv/testcase/hubspot_scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\automation-test-master\src\test\java\seatech\uiTest\ibv\testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960DDAC7-03E7-489A-BF81-351ECF614116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0364EEAD-EFBE-472E-BA59-6DE169E16DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ck trong" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="822" uniqueCount="94">
   <si>
     <t>action</t>
   </si>
@@ -468,7 +468,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -478,12 +478,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,7 +513,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -643,20 +637,8 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -942,10 +924,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,12 +965,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>4</v>
@@ -997,10 +977,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>4</v>
@@ -1008,45 +988,43 @@
       <c r="M2" s="11"/>
       <c r="N2" s="12"/>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>51</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>51</v>
+      <c r="F4" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>4</v>
@@ -1055,19 +1033,19 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="36" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>24</v>
+      <c r="F5" s="39">
+        <v>12345</v>
       </c>
       <c r="G5" s="36" t="s">
         <v>4</v>
@@ -1076,19 +1054,19 @@
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="39">
-        <v>12345</v>
+        <v>3</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>4</v>
       </c>
       <c r="G6" s="36" t="s">
         <v>4</v>
@@ -1097,76 +1075,76 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="36" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>91</v>
+      <c r="D7" s="40" t="s">
+        <v>27</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>4</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="47" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
-      <c r="B8" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="43" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="36" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>86</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>4</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="36" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>3</v>
@@ -1181,16 +1159,16 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>15</v>
+        <v>57</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>4</v>
@@ -1202,16 +1180,16 @@
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>4</v>
@@ -1223,16 +1201,16 @@
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="36"/>
       <c r="B13" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="E13" s="36" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>4</v>
@@ -1243,17 +1221,17 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
-      <c r="B14" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>56</v>
+      <c r="B14" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="36" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>4</v>
@@ -1264,14 +1242,14 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
-      <c r="B15" s="36" t="s">
-        <v>60</v>
+      <c r="B15" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="37" t="s">
-        <v>54</v>
+      <c r="D15" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="E15" s="36" t="s">
         <v>3</v>
@@ -1286,13 +1264,13 @@
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="E16" s="36" t="s">
         <v>3</v>
@@ -1307,13 +1285,13 @@
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="15" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E17" s="36" t="s">
         <v>3</v>
@@ -1328,40 +1306,40 @@
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E18" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C19" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="E19" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>4</v>
@@ -1370,40 +1348,40 @@
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C20" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="37" t="s">
-        <v>68</v>
+      <c r="D20" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>84</v>
+        <v>3</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="36"/>
       <c r="B21" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C21" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="37" t="s">
-        <v>71</v>
+      <c r="D21" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>4</v>
@@ -1411,124 +1389,124 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="36"/>
-      <c r="B22" s="15" t="s">
-        <v>74</v>
+      <c r="B22" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="21" t="s">
-        <v>73</v>
+      <c r="D22" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="E22" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="F22" s="37" t="s">
         <v>4</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
-      <c r="B23" s="15" t="s">
-        <v>75</v>
+      <c r="B23" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="C23" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="36"/>
-      <c r="B24" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="36"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>32</v>
+      </c>
       <c r="B25" s="36" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C25" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>81</v>
+        <v>52</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="F25" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="37" t="s">
-        <v>79</v>
+      <c r="G25" s="36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G26" s="42" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G26" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
-        <v>32</v>
-      </c>
+      <c r="A27" s="36"/>
       <c r="B27" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C27" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" s="37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>4</v>
@@ -1540,16 +1518,16 @@
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="D28" s="37" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="E28" s="36" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="F28" s="37" t="s">
         <v>4</v>
@@ -1560,17 +1538,17 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
-      <c r="B29" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="37" t="s">
-        <v>56</v>
+      <c r="B29" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F29" s="37" t="s">
         <v>4</v>
@@ -1581,14 +1559,14 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
-      <c r="B30" s="36" t="s">
-        <v>60</v>
+      <c r="B30" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C30" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="37" t="s">
-        <v>54</v>
+      <c r="D30" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="E30" s="36" t="s">
         <v>3</v>
@@ -1603,13 +1581,13 @@
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="E31" s="36" t="s">
         <v>3</v>
@@ -1630,7 +1608,7 @@
         <v>16</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E32" s="36" t="s">
         <v>3</v>
@@ -1645,19 +1623,19 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="36"/>
       <c r="B33" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C33" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E33" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F33" s="38">
+        <v>12345</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>4</v>
@@ -1666,19 +1644,19 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C34" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>87</v>
+        <v>15</v>
+      </c>
+      <c r="D34" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="37" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>4</v>
@@ -1687,19 +1665,19 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="36"/>
       <c r="B35" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C35" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="37" t="s">
-        <v>68</v>
+      <c r="D35" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="38">
-        <v>12345</v>
+        <v>3</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>4</v>
@@ -1708,19 +1686,19 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="36"/>
       <c r="B36" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C36" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="37" t="s">
-        <v>71</v>
+      <c r="D36" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="16" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>4</v>
@@ -1728,124 +1706,124 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
-      <c r="B37" s="15" t="s">
-        <v>74</v>
+      <c r="B37" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="C37" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="21" t="s">
-        <v>73</v>
+      <c r="D37" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="E37" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="37" t="s">
         <v>4</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
-      <c r="B38" s="15" t="s">
-        <v>75</v>
+      <c r="B38" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D38" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G38" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="36"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G39" s="42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="36" t="s">
+        <v>89</v>
+      </c>
       <c r="B40" s="36" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C40" s="36" t="s">
         <v>16</v>
       </c>
       <c r="D40" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>81</v>
+        <v>52</v>
+      </c>
+      <c r="E40" s="36" t="s">
+        <v>3</v>
       </c>
       <c r="F40" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="37" t="s">
-        <v>79</v>
+      <c r="G40" s="36" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="D41" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F41" s="42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="42" t="s">
+      <c r="A41" s="36"/>
+      <c r="B41" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G41" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="36" t="s">
-        <v>89</v>
-      </c>
+      <c r="A42" s="36"/>
       <c r="B42" s="36" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D42" s="37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F42" s="37" t="s">
         <v>4</v>
@@ -1857,16 +1835,16 @@
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="36"/>
       <c r="B43" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>16</v>
       </c>
       <c r="D43" s="37" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="E43" s="36" t="s">
-        <v>58</v>
+        <v>3</v>
       </c>
       <c r="F43" s="37" t="s">
         <v>4</v>
@@ -1877,17 +1855,17 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
-      <c r="B44" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="37" t="s">
-        <v>56</v>
+      <c r="B44" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="19" t="s">
+        <v>62</v>
       </c>
       <c r="E44" s="36" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F44" s="37" t="s">
         <v>4</v>
@@ -1898,14 +1876,14 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
-      <c r="B45" s="36" t="s">
-        <v>60</v>
+      <c r="B45" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="C45" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="37" t="s">
-        <v>54</v>
+      <c r="D45" s="19" t="s">
+        <v>64</v>
       </c>
       <c r="E45" s="36" t="s">
         <v>3</v>
@@ -1920,13 +1898,13 @@
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="36"/>
       <c r="B46" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="37" t="s">
+        <v>66</v>
       </c>
       <c r="E46" s="36" t="s">
         <v>3</v>
@@ -1947,7 +1925,7 @@
         <v>16</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>64</v>
+        <v>87</v>
       </c>
       <c r="E47" s="36" t="s">
         <v>3</v>
@@ -1962,19 +1940,19 @@
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
       <c r="B48" s="15" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C48" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D48" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E48" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F48" s="38">
+        <v>20121</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>4</v>
@@ -1983,19 +1961,19 @@
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="15" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>87</v>
+        <v>15</v>
+      </c>
+      <c r="D49" s="37" t="s">
+        <v>71</v>
       </c>
       <c r="E49" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F49" s="37" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>88</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>4</v>
@@ -2004,19 +1982,19 @@
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="36"/>
       <c r="B50" s="15" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C50" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="37" t="s">
-        <v>68</v>
+      <c r="D50" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="E50" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="38">
-        <v>20121</v>
+        <v>3</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>4</v>
@@ -2025,19 +2003,19 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="36"/>
       <c r="B51" s="15" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C51" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="37" t="s">
-        <v>71</v>
+      <c r="D51" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="E51" s="36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>88</v>
+        <v>4</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>4</v>
@@ -2045,127 +2023,85 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="36"/>
-      <c r="B52" s="15" t="s">
-        <v>74</v>
+      <c r="B52" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="C52" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="21" t="s">
-        <v>73</v>
+      <c r="D52" s="41" t="s">
+        <v>76</v>
       </c>
       <c r="E52" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="16" t="s">
+      <c r="F52" s="37" t="s">
         <v>4</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="36"/>
-      <c r="B53" s="15" t="s">
-        <v>75</v>
+      <c r="B53" s="36" t="s">
+        <v>80</v>
       </c>
       <c r="C53" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D53" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="G53" s="36" t="s">
-        <v>4</v>
+        <v>16</v>
+      </c>
+      <c r="D53" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="G53" s="37" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="36"/>
       <c r="B54" s="36" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="C54" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D54" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F54" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="G54" s="37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="36"/>
-      <c r="B55" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F55" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G55" s="37" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D56" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="36" t="s">
+      <c r="F55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G55" s="36" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2178,10 +2114,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{452D2117-FBBE-47FF-AA9A-5E3EC066F44F}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2218,11 +2154,9 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
-        <v>1</v>
-      </c>
+      <c r="A2" s="36"/>
       <c r="B2" s="36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="36" t="s">
         <v>4</v>
@@ -2231,10 +2165,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>4</v>
@@ -2243,19 +2177,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="36"/>
       <c r="B3" s="36" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="G3" s="36" t="s">
         <v>4</v>
@@ -2264,19 +2198,19 @@
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="36"/>
       <c r="B4" s="36" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>35</v>
+      <c r="F4" s="38" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>4</v>
@@ -2285,104 +2219,62 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="36"/>
       <c r="B5" s="36" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="38" t="s">
-        <v>24</v>
-      </c>
+      <c r="F5" s="39"/>
       <c r="G5" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" s="36" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="39"/>
+        <v>3</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="G6" s="36" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="36"/>
       <c r="B7" s="36" t="s">
-        <v>7</v>
+        <v>80</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>3</v>
+      <c r="D7" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="46" t="s">
-        <v>93</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G8" s="37">
+      <c r="G7" s="37">
         <v>123456</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
-      <c r="B9" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2392,14 +2284,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC761A6E-E9FF-4ACE-8C2E-C1DB4EA8844F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="36">
+        <v>1</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
